--- a/data/trans_orig/Q24A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q24A01-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>11.33224152989105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.567056410199809</v>
+        <v>7.567056410199811</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>10.11816967595371</v>
@@ -693,7 +693,7 @@
         <v>10.20858461014967</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.824152967953719</v>
+        <v>7.82415296795372</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.59063745255656</v>
+        <v>11.61070353562745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.1123372070737</v>
+        <v>10.97095739020664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.01891863466949</v>
+        <v>10.00527981719485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.662105487108699</v>
+        <v>5.58422520443853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.345424042243925</v>
+        <v>9.270756674669592</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.223009270177345</v>
+        <v>9.277918254651256</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.671732006112763</v>
+        <v>7.636174715620224</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.664858266479692</v>
+        <v>6.65706813166408</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.7835248250398</v>
+        <v>10.70581180796145</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10.47017405875624</v>
+        <v>10.36973646291757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9.29597976896433</v>
+        <v>9.398427861821803</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.501895472587982</v>
+        <v>6.514266961086629</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.56131485642666</v>
+        <v>13.54738701464578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.66591228124417</v>
+        <v>13.84878546693024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.93261941570327</v>
+        <v>12.81068671050207</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.907526847342599</v>
+        <v>9.903480708767283</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.23278463560048</v>
+        <v>11.23919150957742</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.58057979925181</v>
+        <v>11.40255489159342</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.966004287745966</v>
+        <v>9.868630691235131</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.38297436213909</v>
+        <v>10.30908013262481</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.06258080355839</v>
+        <v>12.07613713116476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12.26229530458851</v>
+        <v>12.20382420084711</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.23379949415884</v>
+        <v>11.37668571814724</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>9.544771969062168</v>
+        <v>9.457204699919162</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>9.55210079978051</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>8.618292226382012</v>
+        <v>8.618292226382014</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>14.13176588232094</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14.65280350609624</v>
+        <v>14.68000294357448</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>12.90218108559379</v>
+        <v>12.86699113404332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.2618742824489</v>
+        <v>12.2647813892083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.89788526536638</v>
+        <v>11.73220897729412</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>10.97410286352151</v>
+        <v>10.90676767707339</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>10.50565208057796</v>
+        <v>10.55892461337869</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.667038267818</v>
+        <v>8.735022792409236</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.632620401174891</v>
+        <v>7.654535612600487</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>13.51392770364295</v>
+        <v>13.51304613250804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12.10263151939926</v>
+        <v>12.14249279711327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.91080385692111</v>
+        <v>10.90626171300436</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>10.25620418286826</v>
+        <v>10.21281020132034</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.137585771266</v>
+        <v>16.19147917892636</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.50204402324418</v>
+        <v>14.52668716240643</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.44166459108733</v>
+        <v>14.46164044448726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.82128750982226</v>
+        <v>14.77862406485965</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>13.08781848601896</v>
+        <v>13.23667757465126</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>12.27716595699449</v>
+        <v>12.30523190718542</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>10.41738424734459</v>
+        <v>10.57507469721948</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>9.810264632937894</v>
+        <v>9.73520504430795</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>14.70990874618908</v>
+        <v>14.74621337242146</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13.35780358906812</v>
+        <v>13.35078659838114</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.32130810027819</v>
+        <v>12.29691495983152</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>12.4214093925882</v>
+        <v>12.30857034840472</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>11.46830013435325</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.357669481514161</v>
+        <v>9.35766948151416</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>16.24870958407825</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.32584361597072</v>
+        <v>17.38960310274887</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.36431228926077</v>
+        <v>16.53523418863878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.35433740079345</v>
+        <v>13.44985707865065</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.43265470851245</v>
+        <v>12.41918234121898</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>12.35171927514222</v>
+        <v>12.40127726272378</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.67733596078117</v>
+        <v>12.5587378120134</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.50984231775496</v>
+        <v>10.57113661983563</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.520110204442977</v>
+        <v>8.532420443649977</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.47423379217022</v>
+        <v>15.3896045892655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15.08981988169694</v>
+        <v>15.01965549427326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12.40434391234101</v>
+        <v>12.38863333553033</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>10.81993716456723</v>
+        <v>10.84352875200159</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.54568149610253</v>
+        <v>19.67993190740552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.83025370667931</v>
+        <v>18.87803572627617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.57358242547719</v>
+        <v>15.60246258262647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.69119187048109</v>
+        <v>15.72194181009133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.3727661206772</v>
+        <v>14.3661202412162</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.56953400228823</v>
+        <v>14.55810166142176</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.40538411255895</v>
+        <v>12.3743551002568</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.31676273929856</v>
+        <v>10.27576576811326</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.01513805869373</v>
+        <v>17.00859482821859</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16.82823614706844</v>
+        <v>16.67460398980372</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13.8658326265805</v>
+        <v>13.90667776842887</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>12.85453449982524</v>
+        <v>12.78183464479481</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>18.48636691488201</v>
+        <v>18.41209243720558</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.10028042231232</v>
+        <v>17.03548482159902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14.65898538057969</v>
+        <v>14.66629950874289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14.26359974390476</v>
+        <v>14.2898961817109</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>13.33901235436005</v>
+        <v>13.30722314734705</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.6380954541901</v>
+        <v>12.59430098645071</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>11.77988497859156</v>
+        <v>11.94859196478632</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.609796253313853</v>
+        <v>9.5826722680409</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.90683656972254</v>
+        <v>16.8809009039554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15.35457083742858</v>
+        <v>15.3037975651893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13.67563015306973</v>
+        <v>13.68876101155675</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>12.3378830125686</v>
+        <v>12.28139179741926</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.86702274591248</v>
+        <v>20.82070488490243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.30891382836224</v>
+        <v>19.26554229521719</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.69844518923191</v>
+        <v>16.81098315798563</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.36861846605471</v>
+        <v>16.48126192035848</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>16.34059261102326</v>
+        <v>16.26659844476966</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.66181001669648</v>
+        <v>14.65145299217703</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>13.92841055814757</v>
+        <v>14.02175289144362</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>11.19382537565517</v>
+        <v>11.18764884352715</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>18.98577836928247</v>
+        <v>18.82183666200864</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16.9285635762051</v>
+        <v>16.87860145266434</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15.14152681364347</v>
+        <v>15.11616290687891</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>13.72555142616361</v>
+        <v>13.73437650914832</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>11.54795613337624</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>10.11563016495175</v>
+        <v>10.11563016495176</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>17.45424503427068</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.89860766488993</v>
+        <v>17.03445056507261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.62008905434879</v>
+        <v>16.48221996451802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.07294728321905</v>
+        <v>13.99070242662503</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.32728705412337</v>
+        <v>13.41222756019885</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>11.08600683337754</v>
+        <v>10.82542830630031</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.47985760718968</v>
+        <v>12.49488054638961</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.17098701496331</v>
+        <v>10.17606516305624</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.26489882156211</v>
+        <v>9.301694424635148</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>15.87293375313802</v>
+        <v>15.73858147599667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15.69405627237947</v>
+        <v>15.80131905670653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12.72723787516663</v>
+        <v>12.57040754306992</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>11.9170753310458</v>
+        <v>11.83179228935068</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.37981284578285</v>
+        <v>21.64230019232757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.55660697186608</v>
+        <v>20.43914663353092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.51684353246164</v>
+        <v>17.37590491798441</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.66727438912378</v>
+        <v>15.75433137218401</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.48502564757358</v>
+        <v>16.32589345266022</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.06791737368814</v>
+        <v>18.17148412130508</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.18021744004866</v>
+        <v>13.1402408179801</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.02365740211739</v>
+        <v>11.01803921333457</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.38481549987355</v>
+        <v>19.326724345546</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18.91976528173353</v>
+        <v>18.96828254595479</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15.08629979884346</v>
+        <v>14.97876583290835</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>13.52975498090446</v>
+        <v>13.47760871904011</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>13.16147904283972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16.66290622276173</v>
+        <v>16.66290622276172</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>17.49204226116213</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>14.25931719095452</v>
+        <v>13.90463438582909</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>12.52918063818336</v>
+        <v>12.85847896961305</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.94823236538787</v>
+        <v>11.00013423841154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14.31553440044024</v>
+        <v>14.50270826939962</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>10.25750398018137</v>
+        <v>9.919288447628212</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>9.67339186460068</v>
+        <v>9.725929216985595</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.778010310807852</v>
+        <v>7.607780310515483</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>9.040987536030567</v>
+        <v>9.206559544777312</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>14.21198008035373</v>
+        <v>14.40117632774836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12.72894134145484</v>
+        <v>12.80874606826557</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10.31542905055488</v>
+        <v>10.41034643395554</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>12.51113838834378</v>
+        <v>12.53487242747012</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.01324285976781</v>
+        <v>18.72157404649379</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.24489365730034</v>
+        <v>21.61225172865296</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.14781526326922</v>
+        <v>15.15737497976327</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.03622607631059</v>
+        <v>20.12467654946063</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>26.81056582436914</v>
+        <v>26.35320223675637</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>18.83916633663147</v>
+        <v>18.54440691099485</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>12.42354328214778</v>
+        <v>12.46980795291431</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>11.92863888563778</v>
+        <v>11.93552297340968</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>19.09667993662842</v>
+        <v>18.91922985659512</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19.4977069095802</v>
+        <v>19.52292127261732</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13.54097801358502</v>
+        <v>13.63287009237929</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>16.1390544870005</v>
+        <v>16.2233665280052</v>
       </c>
     </row>
     <row r="22">
@@ -1520,16 +1520,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.956285832242704</v>
+        <v>9.773408038837919</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.11583281402104</v>
+        <v>9.94363043540857</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.836565918562616</v>
+        <v>9.054609343540953</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.373103501913961</v>
+        <v>9.42097254853398</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>6.61973293304063</v>
@@ -1538,22 +1538,22 @@
         <v>2</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.99422477520329</v>
+        <v>2.997202930752805</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.603319816625364</v>
+        <v>5.794141890957287</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>9.937456290017348</v>
+        <v>9.996986308829774</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8.393160599712061</v>
+        <v>8.159781422028672</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7.254830399662685</v>
+        <v>7.511018016053121</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>9.512227405696139</v>
+        <v>9.476029356012958</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.27839607902771</v>
+        <v>19.82026436522761</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.79041028791764</v>
+        <v>20.61527189654968</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.7681697309204</v>
+        <v>15.95674713874347</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.88505695547876</v>
+        <v>15.00392250812854</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>17.572670698431</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4</v>
+        <v>3.978108378256314</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.23221649176236</v>
+        <v>10.53052857757037</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.02025224331452</v>
+        <v>14.71170982749806</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.89131213980068</v>
+        <v>18.10998898251277</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18.17065731972629</v>
+        <v>17.80015789371672</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13.48496922360335</v>
+        <v>13.71011869725043</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>13.96915967942722</v>
+        <v>13.96282982725118</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>14.1238418749168</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13.76782725044669</v>
+        <v>13.7678272504467</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>12.62208673707686</v>
@@ -1633,7 +1633,7 @@
         <v>10.95960013251299</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>9.612178041381124</v>
+        <v>9.612178041381123</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15.2288833181049</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.30067797116634</v>
+        <v>16.28793861000338</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>15.49126582755936</v>
+        <v>15.58739043621823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13.5998365569382</v>
+        <v>13.6115429732347</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13.07126246692694</v>
+        <v>13.09683912006672</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>12.0773983994034</v>
+        <v>12.04238162310341</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>12.11559708366078</v>
+        <v>12.1058386303579</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>10.49415246322947</v>
+        <v>10.47739906890589</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>9.251404113755742</v>
+        <v>9.18657487532727</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>14.81004280076169</v>
+        <v>14.87383800952891</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14.17309360589909</v>
+        <v>14.21679530827048</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12.34395425628405</v>
+        <v>12.36870716049744</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>11.45435741953095</v>
+        <v>11.47551561455782</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.34363302424286</v>
+        <v>17.31066829008946</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.64895088545568</v>
+        <v>16.64921956141588</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.65506179297745</v>
+        <v>14.66941314457481</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14.47993834620259</v>
+        <v>14.47863797286315</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>13.20103269987392</v>
+        <v>13.17399422255611</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>13.14100411095778</v>
+        <v>13.13311077501685</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>11.45567446107679</v>
+        <v>11.43265557861007</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>10.05648182226183</v>
+        <v>10.05151612858444</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>15.61884346172862</v>
+        <v>15.61871238522999</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15.02674974106329</v>
+        <v>15.01146446068808</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13.08360904164892</v>
+        <v>13.14198498912886</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>12.33727977299465</v>
+        <v>12.3255224703787</v>
       </c>
     </row>
     <row r="28">
